--- a/실무_엑셀_예제_파일/Chapter07/07-001.xlsx
+++ b/실무_엑셀_예제_파일/Chapter07/07-001.xlsx
@@ -1,33 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\info\Google Drive\@ 오빠두 실무엑셀 - 출판\@ 예제파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D81F89F-6F7A-4F1A-A298-2925685311FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60B420C-D42F-453A-92AB-05A313D62B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3396" yWindow="600" windowWidth="14676" windowHeight="13572" xr2:uid="{EF653FB4-E9D0-4D16-B704-38186C9F8FD7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{EF653FB4-E9D0-4D16-B704-38186C9F8FD7}"/>
   </bookViews>
   <sheets>
     <sheet name="재고현황" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -185,7 +176,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -365,34 +356,16 @@
         <color auto="1"/>
       </diagonal>
     </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -420,9 +393,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -435,9 +405,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -461,6 +428,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -779,250 +752,268 @@
   <dimension ref="B1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D17" sqref="D17:F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.3984375" customWidth="1"/>
-    <col min="2" max="2" width="9.796875" customWidth="1"/>
-    <col min="3" max="3" width="26.3984375" customWidth="1"/>
-    <col min="4" max="4" width="9.8984375" customWidth="1"/>
-    <col min="5" max="5" width="10.09765625" customWidth="1"/>
-    <col min="6" max="6" width="12.19921875" customWidth="1"/>
+    <col min="1" max="1" width="4.4140625" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="26.4140625" customWidth="1"/>
+    <col min="4" max="4" width="9.9140625" customWidth="1"/>
+    <col min="5" max="5" width="10.08203125" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="24" t="s">
+    <row r="1" spans="2:6" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-    </row>
-    <row r="3" spans="2:6" ht="7.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="E4" s="9" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+    </row>
+    <row r="3" spans="2:6" ht="7.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="E4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B5" s="5" t="s">
+      <c r="F4" s="9">
+        <f>COUNTA(B6:B15)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>53</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="11">
         <v>8500</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <f>D6*E6</f>
         <v>450500</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>81</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="11">
         <v>3700</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <f t="shared" ref="F7:F15" si="0">D7*E7</f>
         <v>299700</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B8" s="6" t="s">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>137</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="11">
         <v>57100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <f t="shared" si="0"/>
         <v>7822700</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B9" s="6" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>124</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="11">
         <v>83000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <f t="shared" si="0"/>
         <v>10292000</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B10" s="6" t="s">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>122</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="11">
         <v>75000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <f t="shared" si="0"/>
         <v>9150000</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B11" s="6" t="s">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>55</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="11">
         <v>68000</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <f t="shared" si="0"/>
         <v>3740000</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B12" s="6" t="s">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>132</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="11">
         <v>57000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <f t="shared" si="0"/>
         <v>7524000</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B13" s="6" t="s">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>146</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="11">
         <v>54000</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <f t="shared" si="0"/>
         <v>7884000</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B14" s="6" t="s">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>55</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="11">
         <v>87000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <f t="shared" si="0"/>
         <v>4785000</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="7" t="s">
+    <row r="15" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>150</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="12">
         <v>93000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <f t="shared" si="0"/>
         <v>13950000</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B16" s="20" t="s">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B16" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B17" s="22" t="s">
+      <c r="C16" s="18"/>
+      <c r="D16" s="22">
+        <f>SUM(D6:D15)</f>
+        <v>1055</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="22">
+        <f>SUM(F6:F15)</f>
+        <v>65897900</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B17" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="11"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="23">
+        <f>AVERAGE(D6:D16)</f>
+        <v>191.81818181818181</v>
+      </c>
+      <c r="E17" s="23">
+        <f t="shared" ref="E17:F17" si="1">AVERAGE(E6:E16)</f>
+        <v>58630</v>
+      </c>
+      <c r="F17" s="23">
+        <f t="shared" si="1"/>
+        <v>11981436.363636363</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
